--- a/resources/experiment 1/metrics/R2/upto time/Angina (UPTO).xlsx
+++ b/resources/experiment 1/metrics/R2/upto time/Angina (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8647989941770108</v>
+        <v>0.8121622837929257</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8647946062228206</v>
+        <v>0.8031329410193295</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8647946062228206</v>
+        <v>0.750766555188693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8652795393449727</v>
+        <v>0.7898564578798413</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8652813935375528</v>
+        <v>0.7889271823332352</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8652813935375528</v>
+        <v>0.7589429413638695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8105410943240955</v>
+        <v>0.6053334550982021</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8108481447917838</v>
+        <v>0.5785800703049623</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8108481447917838</v>
+        <v>0.5572595351453221</v>
       </c>
     </row>
   </sheetData>
